--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="467">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -67,10 +67,13 @@
     <t xml:space="preserve">find Largest sum contiguous Subarray [V. IMP]</t>
   </si>
   <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimise the maximum difference between heights [V.IMP]</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;-&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimise the maximum difference between heights [V.IMP]</t>
   </si>
   <si>
     <t xml:space="preserve">Minimum no. of Jumps to reach end of an array</t>
@@ -1499,12 +1502,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1544,7 +1553,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1574,6 +1583,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1666,10 +1679,10 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.203125" defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -1794,22 +1807,22 @@
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>17</v>
+      <c r="B15" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1817,7 +1830,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>15</v>
@@ -1828,7 +1841,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>15</v>
@@ -1839,10 +1852,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1850,10 +1863,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1861,10 +1874,10 @@
         <v>6</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1872,10 +1885,10 @@
         <v>6</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1883,10 +1896,10 @@
         <v>6</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1894,10 +1907,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1905,10 +1918,10 @@
         <v>6</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1916,10 +1929,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1927,10 +1940,10 @@
         <v>6</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1938,10 +1951,10 @@
         <v>6</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1949,10 +1962,10 @@
         <v>6</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1960,10 +1973,10 @@
         <v>6</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1971,10 +1984,10 @@
         <v>6</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1982,10 +1995,10 @@
         <v>6</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1993,10 +2006,10 @@
         <v>6</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2004,10 +2017,10 @@
         <v>6</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2015,10 +2028,10 @@
         <v>6</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2026,10 +2039,10 @@
         <v>6</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2037,10 +2050,10 @@
         <v>6</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2048,10 +2061,10 @@
         <v>6</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2059,10 +2072,10 @@
         <v>6</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2070,10 +2083,10 @@
         <v>6</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2081,10 +2094,10 @@
         <v>6</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2092,4648 +2105,4648 @@
         <v>6</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="8"/>
+      <c r="B42" s="9"/>
       <c r="C42" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
-      <c r="B43" s="8"/>
+      <c r="B43" s="9"/>
       <c r="C43" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6"/>
-      <c r="B55" s="8"/>
+      <c r="B55" s="9"/>
       <c r="C55" s="5"/>
     </row>
     <row r="56" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6"/>
-      <c r="B100" s="8"/>
+      <c r="B100" s="9"/>
       <c r="C100" s="5"/>
     </row>
     <row r="101" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="8"/>
+      <c r="B138" s="9"/>
       <c r="C138" s="5"/>
     </row>
     <row r="139" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B164" s="8" t="s">
-        <v>162</v>
+        <v>137</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>163</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B165" s="8" t="s">
-        <v>163</v>
+        <v>137</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="8"/>
+      <c r="B176" s="9"/>
       <c r="C176" s="5"/>
     </row>
     <row r="177" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="6"/>
-      <c r="B212" s="8"/>
+      <c r="B212" s="9"/>
       <c r="C212" s="5"/>
     </row>
     <row r="213" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="6"/>
-      <c r="B213" s="8"/>
+      <c r="B213" s="9"/>
       <c r="C213" s="5"/>
     </row>
     <row r="214" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B220" s="9" t="s">
-        <v>216</v>
+        <v>210</v>
+      </c>
+      <c r="B220" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B236" s="8"/>
+      <c r="B236" s="9"/>
       <c r="C236" s="5"/>
     </row>
     <row r="237" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B237" s="8"/>
+      <c r="B237" s="9"/>
       <c r="C237" s="5"/>
     </row>
     <row r="238" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B273" s="8"/>
+      <c r="B273" s="9"/>
       <c r="C273" s="5"/>
     </row>
     <row r="274" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B274" s="8"/>
+      <c r="B274" s="9"/>
       <c r="C274" s="5"/>
     </row>
     <row r="275" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B294" s="8"/>
+      <c r="B294" s="9"/>
       <c r="C294" s="5"/>
     </row>
     <row r="295" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B295" s="8"/>
+      <c r="B295" s="9"/>
       <c r="C295" s="5"/>
     </row>
     <row r="296" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B309" s="9" t="s">
-        <v>301</v>
+        <v>288</v>
+      </c>
+      <c r="B309" s="10" t="s">
+        <v>302</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B327" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B331" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B333" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B334" s="8"/>
+      <c r="B334" s="9"/>
       <c r="C334" s="5"/>
     </row>
     <row r="335" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B335" s="8"/>
+      <c r="B335" s="9"/>
       <c r="C335" s="5"/>
     </row>
     <row r="336" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="B344" s="9" t="s">
-        <v>335</v>
+        <v>327</v>
+      </c>
+      <c r="B344" s="10" t="s">
+        <v>336</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B348" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B351" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B353" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B354" s="8"/>
+      <c r="B354" s="9"/>
       <c r="C354" s="5"/>
     </row>
     <row r="355" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B355" s="8"/>
+      <c r="B355" s="9"/>
       <c r="C355" s="5"/>
     </row>
     <row r="356" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B356" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B357" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B375" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B377" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B378" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B379" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B387" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B391" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B396" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B398" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B399" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B400" s="8"/>
+      <c r="B400" s="9"/>
       <c r="C400" s="5"/>
     </row>
     <row r="401" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B401" s="8"/>
+      <c r="B401" s="9"/>
       <c r="C401" s="5"/>
     </row>
     <row r="402" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B402" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B403" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B405" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B407" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B408" s="8"/>
+      <c r="B408" s="9"/>
       <c r="C408" s="5"/>
     </row>
     <row r="409" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B409" s="8"/>
+      <c r="B409" s="9"/>
       <c r="C409" s="5"/>
     </row>
     <row r="410" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B410" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B417" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B419" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B420" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B421" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B423" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B425" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B427" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B429" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B431" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B433" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B434" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B435" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B437" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B439" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B440" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B441" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B442" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B443" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B444" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B445" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B446" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B447" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B448" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B449" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B450" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B451" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B452" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B453" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B455" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B457" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B459" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B460" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B461" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B462" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B463" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B464" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B465" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B466" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B467" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B468" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B469" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B470" s="8"/>
+      <c r="B470" s="9"/>
       <c r="C470" s="5"/>
     </row>
     <row r="471" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="6"/>
-      <c r="B471" s="8"/>
+      <c r="B471" s="9"/>
       <c r="C471" s="5"/>
     </row>
     <row r="472" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B472" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C472" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B473" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B474" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C474" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B475" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B477" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B478" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B479" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B480" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B481" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="467">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -1553,7 +1553,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1587,6 +1587,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1678,11 +1682,11 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2421875" defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -1855,7 +1859,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1866,7 +1870,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1877,7 +1881,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1888,7 +1892,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1899,7 +1903,7 @@
         <v>25</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1910,7 +1914,7 @@
         <v>26</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1921,7 +1925,7 @@
         <v>27</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1932,7 +1936,7 @@
         <v>28</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1943,19 +1947,17 @@
         <v>29</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
@@ -1965,7 +1967,7 @@
         <v>31</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1976,7 +1978,7 @@
         <v>32</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1987,18 +1989,18 @@
         <v>33</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2009,7 +2011,7 @@
         <v>35</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2020,7 +2022,7 @@
         <v>36</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2112,14 +2114,14 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="9"/>
+      <c r="B42" s="10"/>
       <c r="C42" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
-      <c r="B43" s="9"/>
+      <c r="B43" s="10"/>
       <c r="C43" s="5" t="s">
         <v>17</v>
       </c>
@@ -2236,7 +2238,7 @@
     </row>
     <row r="55" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6"/>
-      <c r="B55" s="9"/>
+      <c r="B55" s="10"/>
       <c r="C55" s="5"/>
     </row>
     <row r="56" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2276,7 +2278,7 @@
       <c r="A59" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C59" s="5" t="s">
@@ -2714,7 +2716,7 @@
     </row>
     <row r="100" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6"/>
-      <c r="B100" s="9"/>
+      <c r="B100" s="10"/>
       <c r="C100" s="5"/>
     </row>
     <row r="101" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3114,7 +3116,7 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="9"/>
+      <c r="B138" s="10"/>
       <c r="C138" s="5"/>
     </row>
     <row r="139" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3396,7 +3398,7 @@
       <c r="A164" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B164" s="9" t="s">
+      <c r="B164" s="10" t="s">
         <v>163</v>
       </c>
       <c r="C164" s="5" t="s">
@@ -3407,7 +3409,7 @@
       <c r="A165" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B165" s="9" t="s">
+      <c r="B165" s="10" t="s">
         <v>164</v>
       </c>
       <c r="C165" s="5" t="s">
@@ -3514,7 +3516,7 @@
       </c>
     </row>
     <row r="176" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="9"/>
+      <c r="B176" s="10"/>
       <c r="C176" s="5"/>
     </row>
     <row r="177" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3904,12 +3906,12 @@
     </row>
     <row r="212" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="6"/>
-      <c r="B212" s="9"/>
+      <c r="B212" s="10"/>
       <c r="C212" s="5"/>
     </row>
     <row r="213" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="6"/>
-      <c r="B213" s="9"/>
+      <c r="B213" s="10"/>
       <c r="C213" s="5"/>
     </row>
     <row r="214" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3982,7 +3984,7 @@
       <c r="A220" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B220" s="10" t="s">
+      <c r="B220" s="11" t="s">
         <v>217</v>
       </c>
       <c r="C220" s="5" t="s">
@@ -4155,11 +4157,11 @@
       </c>
     </row>
     <row r="236" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B236" s="9"/>
+      <c r="B236" s="10"/>
       <c r="C236" s="5"/>
     </row>
     <row r="237" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B237" s="9"/>
+      <c r="B237" s="10"/>
       <c r="C237" s="5"/>
     </row>
     <row r="238" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4548,11 +4550,11 @@
       </c>
     </row>
     <row r="273" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B273" s="9"/>
+      <c r="B273" s="10"/>
       <c r="C273" s="5"/>
     </row>
     <row r="274" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B274" s="9"/>
+      <c r="B274" s="10"/>
       <c r="C274" s="5"/>
     </row>
     <row r="275" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4765,11 +4767,11 @@
       </c>
     </row>
     <row r="294" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B294" s="9"/>
+      <c r="B294" s="10"/>
       <c r="C294" s="5"/>
     </row>
     <row r="295" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B295" s="9"/>
+      <c r="B295" s="10"/>
       <c r="C295" s="5"/>
     </row>
     <row r="296" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4919,7 +4921,7 @@
       <c r="A309" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="B309" s="10" t="s">
+      <c r="B309" s="11" t="s">
         <v>302</v>
       </c>
       <c r="C309" s="5" t="s">
@@ -5191,11 +5193,11 @@
       </c>
     </row>
     <row r="334" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B334" s="9"/>
+      <c r="B334" s="10"/>
       <c r="C334" s="5"/>
     </row>
     <row r="335" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B335" s="9"/>
+      <c r="B335" s="10"/>
       <c r="C335" s="5"/>
     </row>
     <row r="336" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5290,7 +5292,7 @@
       <c r="A344" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B344" s="10" t="s">
+      <c r="B344" s="11" t="s">
         <v>336</v>
       </c>
       <c r="C344" s="5" t="s">
@@ -5397,11 +5399,11 @@
       </c>
     </row>
     <row r="354" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B354" s="9"/>
+      <c r="B354" s="10"/>
       <c r="C354" s="5"/>
     </row>
     <row r="355" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B355" s="9"/>
+      <c r="B355" s="10"/>
       <c r="C355" s="5"/>
     </row>
     <row r="356" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5889,11 +5891,11 @@
       </c>
     </row>
     <row r="400" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B400" s="9"/>
+      <c r="B400" s="10"/>
       <c r="C400" s="5"/>
     </row>
     <row r="401" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B401" s="9"/>
+      <c r="B401" s="10"/>
       <c r="C401" s="5"/>
     </row>
     <row r="402" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5963,11 +5965,11 @@
       </c>
     </row>
     <row r="408" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B408" s="9"/>
+      <c r="B408" s="10"/>
       <c r="C408" s="5"/>
     </row>
     <row r="409" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B409" s="9"/>
+      <c r="B409" s="10"/>
       <c r="C409" s="5"/>
     </row>
     <row r="410" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6631,12 +6633,12 @@
       </c>
     </row>
     <row r="470" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B470" s="9"/>
+      <c r="B470" s="10"/>
       <c r="C470" s="5"/>
     </row>
     <row r="471" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="6"/>
-      <c r="B471" s="9"/>
+      <c r="B471" s="10"/>
       <c r="C471" s="5"/>
     </row>
     <row r="472" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1436,7 +1436,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1459,7 +1458,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -1467,7 +1465,6 @@
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1476,7 +1473,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1484,7 +1480,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -1492,14 +1487,12 @@
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1553,7 +1546,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1587,10 +1580,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1682,28 +1671,29 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B53" activeCellId="0" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2421875" defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="4" style="0" width="11.25"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1714,12 +1704,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1730,7 +1720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1741,7 +1731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1752,7 +1742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1763,7 +1753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1774,7 +1764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -1785,7 +1775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -1796,7 +1786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -1807,7 +1797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -1818,7 +1808,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -1829,7 +1819,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -1840,7 +1830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -1851,7 +1841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -1862,7 +1852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -1873,7 +1863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
@@ -1884,7 +1874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -1895,7 +1885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -1906,7 +1896,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -1917,7 +1907,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -1928,7 +1918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -1939,7 +1929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
@@ -1950,7 +1940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -1959,7 +1949,7 @@
       </c>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
@@ -1970,7 +1960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
@@ -1981,7 +1971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
@@ -1992,18 +1982,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
         <v>6</v>
       </c>
@@ -2014,7 +2004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -2025,7 +2015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
@@ -2036,7 +2026,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
@@ -2047,7 +2037,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
@@ -2058,7 +2048,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
@@ -2069,7 +2059,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
         <v>6</v>
       </c>
@@ -2080,7 +2070,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
@@ -2091,7 +2081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
@@ -2102,7 +2092,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
@@ -2113,20 +2103,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="10"/>
+    <row r="42" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="9"/>
       <c r="C42" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
-      <c r="B43" s="10"/>
+      <c r="B43" s="9"/>
       <c r="C43" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
         <v>45</v>
       </c>
@@ -2134,10 +2124,10 @@
         <v>46</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
         <v>45</v>
       </c>
@@ -2145,10 +2135,10 @@
         <v>47</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
         <v>45</v>
       </c>
@@ -2156,10 +2146,10 @@
         <v>48</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
         <v>45</v>
       </c>
@@ -2167,10 +2157,10 @@
         <v>49</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
         <v>45</v>
       </c>
@@ -2178,32 +2168,32 @@
         <v>50</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
         <v>45</v>
       </c>
@@ -2211,10 +2201,10 @@
         <v>53</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
         <v>45</v>
       </c>
@@ -2222,10 +2212,10 @@
         <v>54</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
         <v>45</v>
       </c>
@@ -2236,12 +2226,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6"/>
-      <c r="B55" s="10"/>
+      <c r="B55" s="9"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
         <v>56</v>
       </c>
@@ -2252,7 +2242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
         <v>56</v>
       </c>
@@ -2263,7 +2253,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
         <v>56</v>
       </c>
@@ -2274,18 +2264,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
         <v>56</v>
       </c>
@@ -2296,7 +2286,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
         <v>56</v>
       </c>
@@ -2307,7 +2297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
         <v>56</v>
       </c>
@@ -2318,7 +2308,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
         <v>56</v>
       </c>
@@ -2329,7 +2319,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
         <v>56</v>
       </c>
@@ -2340,7 +2330,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
         <v>56</v>
       </c>
@@ -2351,7 +2341,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
         <v>56</v>
       </c>
@@ -2362,7 +2352,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
         <v>56</v>
       </c>
@@ -2373,7 +2363,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
         <v>56</v>
       </c>
@@ -2384,7 +2374,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
         <v>56</v>
       </c>
@@ -2395,7 +2385,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
         <v>56</v>
       </c>
@@ -2406,7 +2396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
         <v>56</v>
       </c>
@@ -2417,7 +2407,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
         <v>56</v>
       </c>
@@ -2428,7 +2418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
         <v>56</v>
       </c>
@@ -2439,7 +2429,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
         <v>56</v>
       </c>
@@ -2450,7 +2440,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
         <v>56</v>
       </c>
@@ -2461,7 +2451,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
         <v>56</v>
       </c>
@@ -2472,7 +2462,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
         <v>56</v>
       </c>
@@ -2483,7 +2473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
         <v>56</v>
       </c>
@@ -2494,7 +2484,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
         <v>56</v>
       </c>
@@ -2505,7 +2495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
         <v>56</v>
       </c>
@@ -2516,7 +2506,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
         <v>56</v>
       </c>
@@ -2527,7 +2517,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
         <v>56</v>
       </c>
@@ -2538,7 +2528,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
         <v>56</v>
       </c>
@@ -2549,7 +2539,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
         <v>56</v>
       </c>
@@ -2560,7 +2550,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
         <v>56</v>
       </c>
@@ -2571,7 +2561,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
         <v>56</v>
       </c>
@@ -2582,7 +2572,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
         <v>56</v>
       </c>
@@ -2593,7 +2583,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
         <v>56</v>
       </c>
@@ -2604,7 +2594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
         <v>56</v>
       </c>
@@ -2615,7 +2605,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
         <v>56</v>
       </c>
@@ -2626,7 +2616,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
         <v>56</v>
       </c>
@@ -2637,7 +2627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
         <v>56</v>
       </c>
@@ -2648,7 +2638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
         <v>56</v>
       </c>
@@ -2659,7 +2649,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
         <v>56</v>
       </c>
@@ -2670,7 +2660,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
         <v>56</v>
       </c>
@@ -2681,7 +2671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
         <v>56</v>
       </c>
@@ -2692,7 +2682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
         <v>56</v>
       </c>
@@ -2703,7 +2693,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
         <v>56</v>
       </c>
@@ -2714,12 +2704,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6"/>
-      <c r="B100" s="10"/>
+      <c r="B100" s="9"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
         <v>100</v>
       </c>
@@ -2730,7 +2720,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
         <v>100</v>
       </c>
@@ -2741,7 +2731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
         <v>100</v>
       </c>
@@ -2752,7 +2742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
         <v>100</v>
       </c>
@@ -2763,7 +2753,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
         <v>100</v>
       </c>
@@ -2774,7 +2764,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
         <v>100</v>
       </c>
@@ -2785,7 +2775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
         <v>100</v>
       </c>
@@ -2796,7 +2786,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
         <v>100</v>
       </c>
@@ -2807,7 +2797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
         <v>100</v>
       </c>
@@ -2818,7 +2808,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
         <v>100</v>
       </c>
@@ -2829,7 +2819,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
         <v>100</v>
       </c>
@@ -2840,7 +2830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
         <v>100</v>
       </c>
@@ -2851,7 +2841,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
         <v>100</v>
       </c>
@@ -2862,7 +2852,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
         <v>100</v>
       </c>
@@ -2873,7 +2863,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
         <v>100</v>
       </c>
@@ -2884,7 +2874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
         <v>100</v>
       </c>
@@ -2895,7 +2885,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
         <v>100</v>
       </c>
@@ -2906,7 +2896,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
         <v>100</v>
       </c>
@@ -2917,7 +2907,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
         <v>100</v>
       </c>
@@ -2928,7 +2918,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
         <v>100</v>
       </c>
@@ -2939,7 +2929,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
         <v>100</v>
       </c>
@@ -2950,7 +2940,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
         <v>100</v>
       </c>
@@ -2961,7 +2951,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
         <v>100</v>
       </c>
@@ -2972,7 +2962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
         <v>100</v>
       </c>
@@ -2983,7 +2973,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
         <v>100</v>
       </c>
@@ -2994,7 +2984,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
         <v>100</v>
       </c>
@@ -3005,7 +2995,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
         <v>100</v>
       </c>
@@ -3016,7 +3006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
         <v>100</v>
       </c>
@@ -3027,7 +3017,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
         <v>100</v>
       </c>
@@ -3038,7 +3028,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
         <v>100</v>
       </c>
@@ -3049,7 +3039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
         <v>100</v>
       </c>
@@ -3060,7 +3050,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
         <v>100</v>
       </c>
@@ -3071,7 +3061,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
         <v>100</v>
       </c>
@@ -3082,7 +3072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
         <v>100</v>
       </c>
@@ -3093,7 +3083,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
         <v>100</v>
       </c>
@@ -3104,7 +3094,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
         <v>100</v>
       </c>
@@ -3115,11 +3105,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="10"/>
+    <row r="138" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="9"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="s">
         <v>137</v>
       </c>
@@ -3130,7 +3120,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="s">
         <v>137</v>
       </c>
@@ -3141,7 +3131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="s">
         <v>137</v>
       </c>
@@ -3152,7 +3142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
         <v>137</v>
       </c>
@@ -3163,7 +3153,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="s">
         <v>137</v>
       </c>
@@ -3174,7 +3164,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
         <v>137</v>
       </c>
@@ -3185,7 +3175,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="s">
         <v>137</v>
       </c>
@@ -3196,7 +3186,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="s">
         <v>137</v>
       </c>
@@ -3207,7 +3197,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="s">
         <v>137</v>
       </c>
@@ -3218,7 +3208,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="s">
         <v>137</v>
       </c>
@@ -3229,7 +3219,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="s">
         <v>137</v>
       </c>
@@ -3240,7 +3230,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="s">
         <v>137</v>
       </c>
@@ -3251,7 +3241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="s">
         <v>137</v>
       </c>
@@ -3262,7 +3252,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="s">
         <v>137</v>
       </c>
@@ -3273,7 +3263,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="s">
         <v>137</v>
       </c>
@@ -3284,7 +3274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="s">
         <v>137</v>
       </c>
@@ -3295,7 +3285,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="s">
         <v>137</v>
       </c>
@@ -3306,7 +3296,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="s">
         <v>137</v>
       </c>
@@ -3317,7 +3307,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="s">
         <v>137</v>
       </c>
@@ -3328,7 +3318,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="s">
         <v>137</v>
       </c>
@@ -3339,7 +3329,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="s">
         <v>137</v>
       </c>
@@ -3350,7 +3340,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="s">
         <v>137</v>
       </c>
@@ -3361,7 +3351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="s">
         <v>137</v>
       </c>
@@ -3372,7 +3362,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="s">
         <v>137</v>
       </c>
@@ -3383,7 +3373,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="s">
         <v>137</v>
       </c>
@@ -3394,29 +3384,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B164" s="10" t="s">
+      <c r="B164" s="9" t="s">
         <v>163</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B165" s="10" t="s">
+      <c r="B165" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="s">
         <v>137</v>
       </c>
@@ -3427,7 +3417,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="s">
         <v>137</v>
       </c>
@@ -3438,7 +3428,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="s">
         <v>137</v>
       </c>
@@ -3449,7 +3439,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="s">
         <v>137</v>
       </c>
@@ -3460,7 +3450,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="s">
         <v>137</v>
       </c>
@@ -3471,7 +3461,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="s">
         <v>137</v>
       </c>
@@ -3482,7 +3472,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="s">
         <v>137</v>
       </c>
@@ -3493,7 +3483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="6" t="s">
         <v>137</v>
       </c>
@@ -3504,7 +3494,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="6" t="s">
         <v>137</v>
       </c>
@@ -3515,11 +3505,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="10"/>
+    <row r="176" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B176" s="9"/>
       <c r="C176" s="5"/>
     </row>
-    <row r="177" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="s">
         <v>174</v>
       </c>
@@ -3530,7 +3520,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="s">
         <v>174</v>
       </c>
@@ -3541,7 +3531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="s">
         <v>174</v>
       </c>
@@ -3552,7 +3542,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="6" t="s">
         <v>174</v>
       </c>
@@ -3563,7 +3553,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="6" t="s">
         <v>174</v>
       </c>
@@ -3574,7 +3564,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="6" t="s">
         <v>174</v>
       </c>
@@ -3585,7 +3575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="s">
         <v>174</v>
       </c>
@@ -3596,7 +3586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="6" t="s">
         <v>174</v>
       </c>
@@ -3607,7 +3597,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="s">
         <v>174</v>
       </c>
@@ -3618,7 +3608,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="6" t="s">
         <v>174</v>
       </c>
@@ -3629,7 +3619,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="6" t="s">
         <v>174</v>
       </c>
@@ -3640,7 +3630,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="6" t="s">
         <v>174</v>
       </c>
@@ -3651,7 +3641,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="6" t="s">
         <v>174</v>
       </c>
@@ -3662,7 +3652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="6" t="s">
         <v>174</v>
       </c>
@@ -3673,7 +3663,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="6" t="s">
         <v>174</v>
       </c>
@@ -3684,7 +3674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="6" t="s">
         <v>174</v>
       </c>
@@ -3695,7 +3685,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="s">
         <v>174</v>
       </c>
@@ -3706,7 +3696,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="6" t="s">
         <v>174</v>
       </c>
@@ -3717,7 +3707,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="s">
         <v>174</v>
       </c>
@@ -3728,7 +3718,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="6" t="s">
         <v>174</v>
       </c>
@@ -3739,7 +3729,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="6" t="s">
         <v>174</v>
       </c>
@@ -3750,7 +3740,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
         <v>174</v>
       </c>
@@ -3761,7 +3751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="6" t="s">
         <v>174</v>
       </c>
@@ -3772,7 +3762,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="s">
         <v>174</v>
       </c>
@@ -3783,7 +3773,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="s">
         <v>174</v>
       </c>
@@ -3794,7 +3784,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="s">
         <v>174</v>
       </c>
@@ -3805,7 +3795,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="6" t="s">
         <v>174</v>
       </c>
@@ -3816,7 +3806,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="6" t="s">
         <v>174</v>
       </c>
@@ -3827,7 +3817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="6" t="s">
         <v>174</v>
       </c>
@@ -3838,7 +3828,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="6" t="s">
         <v>174</v>
       </c>
@@ -3849,7 +3839,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="6" t="s">
         <v>174</v>
       </c>
@@ -3860,7 +3850,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="6" t="s">
         <v>174</v>
       </c>
@@ -3871,7 +3861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="6" t="s">
         <v>174</v>
       </c>
@@ -3882,7 +3872,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="s">
         <v>174</v>
       </c>
@@ -3893,7 +3883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="6" t="s">
         <v>174</v>
       </c>
@@ -3904,17 +3894,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="6"/>
-      <c r="B212" s="10"/>
+      <c r="B212" s="9"/>
       <c r="C212" s="5"/>
     </row>
-    <row r="213" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="6"/>
-      <c r="B213" s="10"/>
+      <c r="B213" s="9"/>
       <c r="C213" s="5"/>
     </row>
-    <row r="214" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="6" t="s">
         <v>210</v>
       </c>
@@ -3925,7 +3915,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="6" t="s">
         <v>210</v>
       </c>
@@ -3936,7 +3926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="s">
         <v>210</v>
       </c>
@@ -3947,7 +3937,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="s">
         <v>210</v>
       </c>
@@ -3958,7 +3948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="s">
         <v>210</v>
       </c>
@@ -3969,7 +3959,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="s">
         <v>210</v>
       </c>
@@ -3980,18 +3970,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B220" s="11" t="s">
+      <c r="B220" s="10" t="s">
         <v>217</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="s">
         <v>210</v>
       </c>
@@ -4002,7 +3992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="s">
         <v>210</v>
       </c>
@@ -4013,7 +4003,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="s">
         <v>210</v>
       </c>
@@ -4024,7 +4014,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="s">
         <v>210</v>
       </c>
@@ -4035,7 +4025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="s">
         <v>210</v>
       </c>
@@ -4046,7 +4036,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="6" t="s">
         <v>210</v>
       </c>
@@ -4057,7 +4047,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="s">
         <v>210</v>
       </c>
@@ -4068,7 +4058,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="s">
         <v>210</v>
       </c>
@@ -4079,7 +4069,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="s">
         <v>210</v>
       </c>
@@ -4090,7 +4080,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="s">
         <v>210</v>
       </c>
@@ -4101,7 +4091,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="s">
         <v>210</v>
       </c>
@@ -4112,7 +4102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="6" t="s">
         <v>210</v>
       </c>
@@ -4123,7 +4113,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="6" t="s">
         <v>210</v>
       </c>
@@ -4134,7 +4124,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="6" t="s">
         <v>210</v>
       </c>
@@ -4145,7 +4135,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="6" t="s">
         <v>210</v>
       </c>
@@ -4156,15 +4146,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B236" s="10"/>
+    <row r="236" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B236" s="9"/>
       <c r="C236" s="5"/>
     </row>
-    <row r="237" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B237" s="10"/>
+    <row r="237" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B237" s="9"/>
       <c r="C237" s="5"/>
     </row>
-    <row r="238" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="s">
         <v>233</v>
       </c>
@@ -4175,7 +4165,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="6" t="s">
         <v>233</v>
       </c>
@@ -4186,7 +4176,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="s">
         <v>233</v>
       </c>
@@ -4197,7 +4187,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="s">
         <v>233</v>
       </c>
@@ -4208,7 +4198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="s">
         <v>233</v>
       </c>
@@ -4219,7 +4209,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="s">
         <v>233</v>
       </c>
@@ -4230,7 +4220,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="s">
         <v>233</v>
       </c>
@@ -4241,7 +4231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="6" t="s">
         <v>233</v>
       </c>
@@ -4252,7 +4242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="6" t="s">
         <v>233</v>
       </c>
@@ -4263,7 +4253,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="6" t="s">
         <v>233</v>
       </c>
@@ -4274,7 +4264,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="6" t="s">
         <v>233</v>
       </c>
@@ -4285,7 +4275,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="6" t="s">
         <v>233</v>
       </c>
@@ -4296,7 +4286,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="6" t="s">
         <v>233</v>
       </c>
@@ -4307,7 +4297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="6" t="s">
         <v>233</v>
       </c>
@@ -4318,7 +4308,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="6" t="s">
         <v>233</v>
       </c>
@@ -4329,7 +4319,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="6" t="s">
         <v>233</v>
       </c>
@@ -4340,7 +4330,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="6" t="s">
         <v>233</v>
       </c>
@@ -4351,7 +4341,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6" t="s">
         <v>233</v>
       </c>
@@ -4362,7 +4352,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6" t="s">
         <v>233</v>
       </c>
@@ -4373,7 +4363,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="6" t="s">
         <v>233</v>
       </c>
@@ -4384,7 +4374,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="6" t="s">
         <v>233</v>
       </c>
@@ -4395,7 +4385,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="6" t="s">
         <v>233</v>
       </c>
@@ -4406,7 +4396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="6" t="s">
         <v>233</v>
       </c>
@@ -4417,7 +4407,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="6" t="s">
         <v>233</v>
       </c>
@@ -4428,7 +4418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="6" t="s">
         <v>233</v>
       </c>
@@ -4439,7 +4429,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="6" t="s">
         <v>233</v>
       </c>
@@ -4450,7 +4440,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="6" t="s">
         <v>233</v>
       </c>
@@ -4461,7 +4451,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="6" t="s">
         <v>233</v>
       </c>
@@ -4472,7 +4462,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="6" t="s">
         <v>233</v>
       </c>
@@ -4483,7 +4473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6" t="s">
         <v>233</v>
       </c>
@@ -4494,7 +4484,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="6" t="s">
         <v>233</v>
       </c>
@@ -4505,7 +4495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="6" t="s">
         <v>233</v>
       </c>
@@ -4516,7 +4506,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="6" t="s">
         <v>233</v>
       </c>
@@ -4527,7 +4517,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="6" t="s">
         <v>233</v>
       </c>
@@ -4538,7 +4528,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="6" t="s">
         <v>233</v>
       </c>
@@ -4549,15 +4539,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B273" s="10"/>
+    <row r="273" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B273" s="9"/>
       <c r="C273" s="5"/>
     </row>
-    <row r="274" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B274" s="10"/>
+    <row r="274" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B274" s="9"/>
       <c r="C274" s="5"/>
     </row>
-    <row r="275" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="6" t="s">
         <v>268</v>
       </c>
@@ -4568,7 +4558,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="6" t="s">
         <v>268</v>
       </c>
@@ -4579,7 +4569,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="6" t="s">
         <v>268</v>
       </c>
@@ -4590,7 +4580,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="6" t="s">
         <v>268</v>
       </c>
@@ -4601,7 +4591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="6" t="s">
         <v>268</v>
       </c>
@@ -4612,7 +4602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="6" t="s">
         <v>268</v>
       </c>
@@ -4623,7 +4613,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
         <v>268</v>
       </c>
@@ -4634,7 +4624,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="6" t="s">
         <v>268</v>
       </c>
@@ -4645,7 +4635,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="6" t="s">
         <v>268</v>
       </c>
@@ -4656,7 +4646,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="6" t="s">
         <v>268</v>
       </c>
@@ -4667,7 +4657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="6" t="s">
         <v>268</v>
       </c>
@@ -4678,7 +4668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="6" t="s">
         <v>268</v>
       </c>
@@ -4689,7 +4679,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="6" t="s">
         <v>268</v>
       </c>
@@ -4700,7 +4690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="6" t="s">
         <v>268</v>
       </c>
@@ -4711,7 +4701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="6" t="s">
         <v>268</v>
       </c>
@@ -4722,7 +4712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="6" t="s">
         <v>268</v>
       </c>
@@ -4733,7 +4723,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="6" t="s">
         <v>268</v>
       </c>
@@ -4744,7 +4734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="6" t="s">
         <v>268</v>
       </c>
@@ -4755,7 +4745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="6" t="s">
         <v>268</v>
       </c>
@@ -4766,15 +4756,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B294" s="10"/>
+    <row r="294" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B294" s="9"/>
       <c r="C294" s="5"/>
     </row>
-    <row r="295" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B295" s="10"/>
+    <row r="295" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B295" s="9"/>
       <c r="C295" s="5"/>
     </row>
-    <row r="296" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="6" t="s">
         <v>288</v>
       </c>
@@ -4785,7 +4775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="6" t="s">
         <v>288</v>
       </c>
@@ -4796,7 +4786,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="6" t="s">
         <v>288</v>
       </c>
@@ -4807,7 +4797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="6" t="s">
         <v>288</v>
       </c>
@@ -4818,7 +4808,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="6" t="s">
         <v>288</v>
       </c>
@@ -4829,7 +4819,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="6" t="s">
         <v>288</v>
       </c>
@@ -4840,7 +4830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="6" t="s">
         <v>288</v>
       </c>
@@ -4851,7 +4841,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="6" t="s">
         <v>288</v>
       </c>
@@ -4862,7 +4852,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="6" t="s">
         <v>288</v>
       </c>
@@ -4873,7 +4863,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="6" t="s">
         <v>288</v>
       </c>
@@ -4884,7 +4874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="6" t="s">
         <v>288</v>
       </c>
@@ -4895,7 +4885,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="6" t="s">
         <v>288</v>
       </c>
@@ -4906,7 +4896,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="6" t="s">
         <v>288</v>
       </c>
@@ -4917,18 +4907,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="B309" s="11" t="s">
+      <c r="B309" s="10" t="s">
         <v>302</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="6" t="s">
         <v>288</v>
       </c>
@@ -4939,7 +4929,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="6" t="s">
         <v>288</v>
       </c>
@@ -4950,7 +4940,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="6" t="s">
         <v>288</v>
       </c>
@@ -4961,7 +4951,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="6" t="s">
         <v>288</v>
       </c>
@@ -4972,7 +4962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="6" t="s">
         <v>288</v>
       </c>
@@ -4983,7 +4973,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="6" t="s">
         <v>288</v>
       </c>
@@ -4994,7 +4984,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="6" t="s">
         <v>288</v>
       </c>
@@ -5005,7 +4995,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="6" t="s">
         <v>288</v>
       </c>
@@ -5016,7 +5006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="6" t="s">
         <v>288</v>
       </c>
@@ -5027,7 +5017,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="6" t="s">
         <v>288</v>
       </c>
@@ -5038,7 +5028,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="6" t="s">
         <v>288</v>
       </c>
@@ -5049,7 +5039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="6" t="s">
         <v>288</v>
       </c>
@@ -5060,7 +5050,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="6" t="s">
         <v>288</v>
       </c>
@@ -5071,7 +5061,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="6" t="s">
         <v>288</v>
       </c>
@@ -5082,7 +5072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="6" t="s">
         <v>288</v>
       </c>
@@ -5093,7 +5083,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="6" t="s">
         <v>288</v>
       </c>
@@ -5104,7 +5094,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="6" t="s">
         <v>288</v>
       </c>
@@ -5115,7 +5105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="6" t="s">
         <v>288</v>
       </c>
@@ -5126,7 +5116,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="6" t="s">
         <v>288</v>
       </c>
@@ -5137,7 +5127,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="6" t="s">
         <v>288</v>
       </c>
@@ -5148,7 +5138,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="6" t="s">
         <v>288</v>
       </c>
@@ -5159,7 +5149,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="6" t="s">
         <v>288</v>
       </c>
@@ -5170,7 +5160,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="6" t="s">
         <v>288</v>
       </c>
@@ -5181,7 +5171,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="6" t="s">
         <v>288</v>
       </c>
@@ -5192,15 +5182,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B334" s="10"/>
+    <row r="334" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B334" s="9"/>
       <c r="C334" s="5"/>
     </row>
-    <row r="335" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B335" s="10"/>
+    <row r="335" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B335" s="9"/>
       <c r="C335" s="5"/>
     </row>
-    <row r="336" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="6" t="s">
         <v>327</v>
       </c>
@@ -5211,7 +5201,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="6" t="s">
         <v>327</v>
       </c>
@@ -5222,7 +5212,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="6" t="s">
         <v>327</v>
       </c>
@@ -5233,7 +5223,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="6" t="s">
         <v>327</v>
       </c>
@@ -5244,7 +5234,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="6" t="s">
         <v>327</v>
       </c>
@@ -5255,7 +5245,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="6" t="s">
         <v>327</v>
       </c>
@@ -5266,7 +5256,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="6" t="s">
         <v>327</v>
       </c>
@@ -5277,7 +5267,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="6" t="s">
         <v>327</v>
       </c>
@@ -5288,18 +5278,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B344" s="11" t="s">
+      <c r="B344" s="10" t="s">
         <v>336</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="6" t="s">
         <v>327</v>
       </c>
@@ -5310,7 +5300,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="6" t="s">
         <v>327</v>
       </c>
@@ -5321,7 +5311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="6" t="s">
         <v>327</v>
       </c>
@@ -5332,7 +5322,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="6" t="s">
         <v>327</v>
       </c>
@@ -5343,7 +5333,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="6" t="s">
         <v>327</v>
       </c>
@@ -5354,7 +5344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="6" t="s">
         <v>327</v>
       </c>
@@ -5365,7 +5355,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="6" t="s">
         <v>327</v>
       </c>
@@ -5376,7 +5366,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="6" t="s">
         <v>327</v>
       </c>
@@ -5387,7 +5377,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="6" t="s">
         <v>327</v>
       </c>
@@ -5398,15 +5388,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B354" s="10"/>
+    <row r="354" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B354" s="9"/>
       <c r="C354" s="5"/>
     </row>
-    <row r="355" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B355" s="10"/>
+    <row r="355" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B355" s="9"/>
       <c r="C355" s="5"/>
     </row>
-    <row r="356" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="6" t="s">
         <v>346</v>
       </c>
@@ -5417,7 +5407,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="6" t="s">
         <v>346</v>
       </c>
@@ -5428,7 +5418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="6" t="s">
         <v>346</v>
       </c>
@@ -5439,7 +5429,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="6" t="s">
         <v>346</v>
       </c>
@@ -5450,7 +5440,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="6" t="s">
         <v>346</v>
       </c>
@@ -5461,7 +5451,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="6" t="s">
         <v>346</v>
       </c>
@@ -5472,7 +5462,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="6" t="s">
         <v>346</v>
       </c>
@@ -5483,7 +5473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="6" t="s">
         <v>346</v>
       </c>
@@ -5494,7 +5484,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="6" t="s">
         <v>346</v>
       </c>
@@ -5505,7 +5495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="6" t="s">
         <v>346</v>
       </c>
@@ -5516,7 +5506,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="6" t="s">
         <v>346</v>
       </c>
@@ -5527,7 +5517,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="6" t="s">
         <v>346</v>
       </c>
@@ -5538,7 +5528,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="6" t="s">
         <v>346</v>
       </c>
@@ -5549,7 +5539,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="6" t="s">
         <v>346</v>
       </c>
@@ -5560,7 +5550,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="6" t="s">
         <v>346</v>
       </c>
@@ -5571,7 +5561,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="6" t="s">
         <v>346</v>
       </c>
@@ -5582,7 +5572,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="6" t="s">
         <v>346</v>
       </c>
@@ -5593,7 +5583,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="6" t="s">
         <v>346</v>
       </c>
@@ -5604,7 +5594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="6" t="s">
         <v>346</v>
       </c>
@@ -5615,7 +5605,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="6" t="s">
         <v>346</v>
       </c>
@@ -5626,7 +5616,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="6" t="s">
         <v>346</v>
       </c>
@@ -5637,7 +5627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="6" t="s">
         <v>346</v>
       </c>
@@ -5648,7 +5638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="6" t="s">
         <v>346</v>
       </c>
@@ -5659,7 +5649,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="6" t="s">
         <v>346</v>
       </c>
@@ -5670,7 +5660,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="6" t="s">
         <v>346</v>
       </c>
@@ -5681,7 +5671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="6" t="s">
         <v>346</v>
       </c>
@@ -5692,7 +5682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="6" t="s">
         <v>346</v>
       </c>
@@ -5703,7 +5693,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="6" t="s">
         <v>346</v>
       </c>
@@ -5714,7 +5704,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="6" t="s">
         <v>346</v>
       </c>
@@ -5725,7 +5715,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="6" t="s">
         <v>346</v>
       </c>
@@ -5736,7 +5726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="6" t="s">
         <v>346</v>
       </c>
@@ -5747,7 +5737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="6" t="s">
         <v>346</v>
       </c>
@@ -5758,7 +5748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="6" t="s">
         <v>346</v>
       </c>
@@ -5769,7 +5759,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="6" t="s">
         <v>346</v>
       </c>
@@ -5780,7 +5770,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="6" t="s">
         <v>346</v>
       </c>
@@ -5791,7 +5781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="6" t="s">
         <v>346</v>
       </c>
@@ -5802,7 +5792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="6" t="s">
         <v>346</v>
       </c>
@@ -5813,7 +5803,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="6" t="s">
         <v>346</v>
       </c>
@@ -5824,7 +5814,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="6" t="s">
         <v>346</v>
       </c>
@@ -5835,7 +5825,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="6" t="s">
         <v>346</v>
       </c>
@@ -5846,7 +5836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="6" t="s">
         <v>346</v>
       </c>
@@ -5857,7 +5847,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="6" t="s">
         <v>346</v>
       </c>
@@ -5868,7 +5858,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="6" t="s">
         <v>346</v>
       </c>
@@ -5879,7 +5869,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="6" t="s">
         <v>346</v>
       </c>
@@ -5890,15 +5880,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B400" s="10"/>
+    <row r="400" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B400" s="9"/>
       <c r="C400" s="5"/>
     </row>
-    <row r="401" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B401" s="10"/>
+    <row r="401" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B401" s="9"/>
       <c r="C401" s="5"/>
     </row>
-    <row r="402" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="6" t="s">
         <v>390</v>
       </c>
@@ -5909,7 +5899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="6" t="s">
         <v>390</v>
       </c>
@@ -5920,7 +5910,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="6" t="s">
         <v>390</v>
       </c>
@@ -5931,7 +5921,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="6" t="s">
         <v>390</v>
       </c>
@@ -5942,7 +5932,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="6" t="s">
         <v>390</v>
       </c>
@@ -5953,7 +5943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="6" t="s">
         <v>390</v>
       </c>
@@ -5964,15 +5954,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B408" s="10"/>
+    <row r="408" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B408" s="9"/>
       <c r="C408" s="5"/>
     </row>
-    <row r="409" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B409" s="10"/>
+    <row r="409" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B409" s="9"/>
       <c r="C409" s="5"/>
     </row>
-    <row r="410" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="6" t="s">
         <v>396</v>
       </c>
@@ -5983,7 +5973,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="6" t="s">
         <v>396</v>
       </c>
@@ -5994,7 +5984,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="6" t="s">
         <v>396</v>
       </c>
@@ -6005,7 +5995,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="6" t="s">
         <v>396</v>
       </c>
@@ -6016,7 +6006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="6" t="s">
         <v>396</v>
       </c>
@@ -6027,7 +6017,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="6" t="s">
         <v>396</v>
       </c>
@@ -6038,7 +6028,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="6" t="s">
         <v>396</v>
       </c>
@@ -6049,7 +6039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="6" t="s">
         <v>396</v>
       </c>
@@ -6060,7 +6050,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="6" t="s">
         <v>396</v>
       </c>
@@ -6071,7 +6061,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="6" t="s">
         <v>396</v>
       </c>
@@ -6082,7 +6072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="6" t="s">
         <v>396</v>
       </c>
@@ -6093,7 +6083,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="6" t="s">
         <v>396</v>
       </c>
@@ -6104,7 +6094,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="6" t="s">
         <v>396</v>
       </c>
@@ -6115,7 +6105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="6" t="s">
         <v>396</v>
       </c>
@@ -6126,7 +6116,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="6" t="s">
         <v>396</v>
       </c>
@@ -6137,7 +6127,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="6" t="s">
         <v>396</v>
       </c>
@@ -6148,7 +6138,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="6" t="s">
         <v>396</v>
       </c>
@@ -6159,7 +6149,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="6" t="s">
         <v>396</v>
       </c>
@@ -6170,7 +6160,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="6" t="s">
         <v>396</v>
       </c>
@@ -6181,7 +6171,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="6" t="s">
         <v>396</v>
       </c>
@@ -6192,7 +6182,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="6" t="s">
         <v>396</v>
       </c>
@@ -6203,7 +6193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="6" t="s">
         <v>396</v>
       </c>
@@ -6214,7 +6204,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="6" t="s">
         <v>396</v>
       </c>
@@ -6225,7 +6215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="6" t="s">
         <v>396</v>
       </c>
@@ -6236,7 +6226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="6" t="s">
         <v>396</v>
       </c>
@@ -6247,7 +6237,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="6" t="s">
         <v>396</v>
       </c>
@@ -6258,7 +6248,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="6" t="s">
         <v>396</v>
       </c>
@@ -6269,7 +6259,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="6" t="s">
         <v>396</v>
       </c>
@@ -6280,7 +6270,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="6" t="s">
         <v>396</v>
       </c>
@@ -6291,7 +6281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="6" t="s">
         <v>396</v>
       </c>
@@ -6302,7 +6292,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="6" t="s">
         <v>396</v>
       </c>
@@ -6313,7 +6303,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="6" t="s">
         <v>396</v>
       </c>
@@ -6324,7 +6314,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="6" t="s">
         <v>396</v>
       </c>
@@ -6335,7 +6325,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="6" t="s">
         <v>396</v>
       </c>
@@ -6346,7 +6336,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="6" t="s">
         <v>396</v>
       </c>
@@ -6357,7 +6347,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="6" t="s">
         <v>396</v>
       </c>
@@ -6368,7 +6358,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="6" t="s">
         <v>396</v>
       </c>
@@ -6379,7 +6369,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="6" t="s">
         <v>396</v>
       </c>
@@ -6390,7 +6380,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="6" t="s">
         <v>396</v>
       </c>
@@ -6401,7 +6391,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="6" t="s">
         <v>396</v>
       </c>
@@ -6412,7 +6402,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="6" t="s">
         <v>396</v>
       </c>
@@ -6423,7 +6413,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="6" t="s">
         <v>396</v>
       </c>
@@ -6434,7 +6424,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="6" t="s">
         <v>396</v>
       </c>
@@ -6445,7 +6435,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="6" t="s">
         <v>396</v>
       </c>
@@ -6456,7 +6446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="454" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="6" t="s">
         <v>396</v>
       </c>
@@ -6467,7 +6457,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="455" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="6" t="s">
         <v>396</v>
       </c>
@@ -6478,7 +6468,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="6" t="s">
         <v>396</v>
       </c>
@@ -6489,7 +6479,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="6" t="s">
         <v>396</v>
       </c>
@@ -6500,7 +6490,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="6" t="s">
         <v>396</v>
       </c>
@@ -6511,7 +6501,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="6" t="s">
         <v>396</v>
       </c>
@@ -6522,7 +6512,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="6" t="s">
         <v>396</v>
       </c>
@@ -6533,7 +6523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="6" t="s">
         <v>396</v>
       </c>
@@ -6544,7 +6534,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="6" t="s">
         <v>396</v>
       </c>
@@ -6555,7 +6545,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="6" t="s">
         <v>396</v>
       </c>
@@ -6566,7 +6556,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="6" t="s">
         <v>396</v>
       </c>
@@ -6577,7 +6567,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="6" t="s">
         <v>396</v>
       </c>
@@ -6588,7 +6578,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="6" t="s">
         <v>396</v>
       </c>
@@ -6599,7 +6589,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="6" t="s">
         <v>396</v>
       </c>
@@ -6610,7 +6600,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="6" t="s">
         <v>396</v>
       </c>
@@ -6621,7 +6611,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="469" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="6" t="s">
         <v>396</v>
       </c>
@@ -6632,16 +6622,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="470" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B470" s="10"/>
+    <row r="470" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B470" s="9"/>
       <c r="C470" s="5"/>
     </row>
-    <row r="471" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="6"/>
-      <c r="B471" s="10"/>
+      <c r="B471" s="9"/>
       <c r="C471" s="5"/>
     </row>
-    <row r="472" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="6" t="s">
         <v>456</v>
       </c>
@@ -6652,7 +6642,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="473" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="6" t="s">
         <v>456</v>
       </c>
@@ -6663,7 +6653,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="474" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="6" t="s">
         <v>456</v>
       </c>
@@ -6674,7 +6664,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="475" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="6" t="s">
         <v>456</v>
       </c>
@@ -6685,7 +6675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="476" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="6" t="s">
         <v>456</v>
       </c>
@@ -6696,7 +6686,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="477" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="6" t="s">
         <v>456</v>
       </c>
@@ -6707,7 +6697,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="478" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="6" t="s">
         <v>456</v>
       </c>
@@ -6718,7 +6708,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="479" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="6" t="s">
         <v>456</v>
       </c>
@@ -6729,7 +6719,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="480" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="6" t="s">
         <v>456</v>
       </c>
@@ -6740,7 +6730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="6" t="s">
         <v>456</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1436,6 +1436,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1458,6 +1459,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -1465,6 +1467,7 @@
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1473,6 +1476,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1480,6 +1484,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -1487,12 +1492,14 @@
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1672,10 +1679,10 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B53" activeCellId="0" sqref="B53"/>
+      <selection pane="topLeft" activeCell="C53" activeCellId="0" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -2223,7 +2230,7 @@
         <v>55</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="468">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t xml:space="preserve">Median of 2 sorted arrays of different size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes </t>
   </si>
   <si>
     <t xml:space="preserve">Matrix</t>
@@ -1436,7 +1439,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1459,7 +1461,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -1467,7 +1468,6 @@
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1476,7 +1476,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1484,7 +1483,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -1492,14 +1490,12 @@
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1678,11 +1674,11 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C53" activeCellId="0" sqref="C53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -2030,7 +2026,7 @@
         <v>37</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2041,7 +2037,7 @@
         <v>38</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2063,14 +2059,14 @@
         <v>40</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -2085,7 +2081,7 @@
         <v>42</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2096,7 +2092,7 @@
         <v>43</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2107,7 +2103,7 @@
         <v>44</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2125,10 +2121,10 @@
     </row>
     <row r="44" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>15</v>
@@ -2136,10 +2132,10 @@
     </row>
     <row r="45" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>15</v>
@@ -2147,10 +2143,10 @@
     </row>
     <row r="46" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>15</v>
@@ -2158,10 +2154,10 @@
     </row>
     <row r="47" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>15</v>
@@ -2169,10 +2165,10 @@
     </row>
     <row r="48" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>15</v>
@@ -2180,10 +2176,10 @@
     </row>
     <row r="49" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>17</v>
@@ -2191,10 +2187,10 @@
     </row>
     <row r="50" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>17</v>
@@ -2202,10 +2198,10 @@
     </row>
     <row r="51" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>15</v>
@@ -2213,10 +2209,10 @@
     </row>
     <row r="52" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>15</v>
@@ -2224,10 +2220,10 @@
     </row>
     <row r="53" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>15</v>
@@ -2240,10 +2236,10 @@
     </row>
     <row r="56" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>17</v>
@@ -2251,10 +2247,10 @@
     </row>
     <row r="57" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>17</v>
@@ -2262,10 +2258,10 @@
     </row>
     <row r="58" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>17</v>
@@ -2273,10 +2269,10 @@
     </row>
     <row r="59" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>17</v>
@@ -2284,10 +2280,10 @@
     </row>
     <row r="60" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>17</v>
@@ -2295,10 +2291,10 @@
     </row>
     <row r="61" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>17</v>
@@ -2306,10 +2302,10 @@
     </row>
     <row r="62" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>17</v>
@@ -2317,10 +2313,10 @@
     </row>
     <row r="63" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>17</v>
@@ -2328,10 +2324,10 @@
     </row>
     <row r="64" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>17</v>
@@ -2339,10 +2335,10 @@
     </row>
     <row r="65" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>17</v>
@@ -2350,10 +2346,10 @@
     </row>
     <row r="66" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>17</v>
@@ -2361,10 +2357,10 @@
     </row>
     <row r="67" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>17</v>
@@ -2372,10 +2368,10 @@
     </row>
     <row r="68" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>17</v>
@@ -2383,10 +2379,10 @@
     </row>
     <row r="69" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>17</v>
@@ -2394,10 +2390,10 @@
     </row>
     <row r="70" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>17</v>
@@ -2405,10 +2401,10 @@
     </row>
     <row r="71" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>17</v>
@@ -2416,10 +2412,10 @@
     </row>
     <row r="72" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>17</v>
@@ -2427,10 +2423,10 @@
     </row>
     <row r="73" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>17</v>
@@ -2438,10 +2434,10 @@
     </row>
     <row r="74" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>17</v>
@@ -2449,10 +2445,10 @@
     </row>
     <row r="75" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>17</v>
@@ -2460,10 +2456,10 @@
     </row>
     <row r="76" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>17</v>
@@ -2471,10 +2467,10 @@
     </row>
     <row r="77" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>17</v>
@@ -2482,10 +2478,10 @@
     </row>
     <row r="78" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>17</v>
@@ -2493,10 +2489,10 @@
     </row>
     <row r="79" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>17</v>
@@ -2504,10 +2500,10 @@
     </row>
     <row r="80" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>17</v>
@@ -2515,10 +2511,10 @@
     </row>
     <row r="81" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>17</v>
@@ -2526,10 +2522,10 @@
     </row>
     <row r="82" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>17</v>
@@ -2537,10 +2533,10 @@
     </row>
     <row r="83" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>17</v>
@@ -2548,10 +2544,10 @@
     </row>
     <row r="84" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>17</v>
@@ -2559,10 +2555,10 @@
     </row>
     <row r="85" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>17</v>
@@ -2570,10 +2566,10 @@
     </row>
     <row r="86" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>17</v>
@@ -2581,10 +2577,10 @@
     </row>
     <row r="87" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>17</v>
@@ -2592,10 +2588,10 @@
     </row>
     <row r="88" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>17</v>
@@ -2603,10 +2599,10 @@
     </row>
     <row r="89" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>17</v>
@@ -2614,10 +2610,10 @@
     </row>
     <row r="90" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>17</v>
@@ -2625,10 +2621,10 @@
     </row>
     <row r="91" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>17</v>
@@ -2636,10 +2632,10 @@
     </row>
     <row r="92" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>17</v>
@@ -2647,10 +2643,10 @@
     </row>
     <row r="93" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>17</v>
@@ -2658,10 +2654,10 @@
     </row>
     <row r="94" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>17</v>
@@ -2669,10 +2665,10 @@
     </row>
     <row r="95" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>17</v>
@@ -2680,10 +2676,10 @@
     </row>
     <row r="96" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>17</v>
@@ -2691,10 +2687,10 @@
     </row>
     <row r="97" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>17</v>
@@ -2702,10 +2698,10 @@
     </row>
     <row r="98" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>17</v>
@@ -2718,10 +2714,10 @@
     </row>
     <row r="101" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>17</v>
@@ -2729,10 +2725,10 @@
     </row>
     <row r="102" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>17</v>
@@ -2740,10 +2736,10 @@
     </row>
     <row r="103" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>17</v>
@@ -2751,10 +2747,10 @@
     </row>
     <row r="104" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>17</v>
@@ -2762,10 +2758,10 @@
     </row>
     <row r="105" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>17</v>
@@ -2773,10 +2769,10 @@
     </row>
     <row r="106" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>17</v>
@@ -2784,10 +2780,10 @@
     </row>
     <row r="107" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>17</v>
@@ -2795,10 +2791,10 @@
     </row>
     <row r="108" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>17</v>
@@ -2806,10 +2802,10 @@
     </row>
     <row r="109" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>17</v>
@@ -2817,10 +2813,10 @@
     </row>
     <row r="110" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>17</v>
@@ -2828,10 +2824,10 @@
     </row>
     <row r="111" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>17</v>
@@ -2839,10 +2835,10 @@
     </row>
     <row r="112" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>17</v>
@@ -2850,10 +2846,10 @@
     </row>
     <row r="113" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>17</v>
@@ -2861,10 +2857,10 @@
     </row>
     <row r="114" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>17</v>
@@ -2872,10 +2868,10 @@
     </row>
     <row r="115" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>17</v>
@@ -2883,10 +2879,10 @@
     </row>
     <row r="116" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>17</v>
@@ -2894,10 +2890,10 @@
     </row>
     <row r="117" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>17</v>
@@ -2905,10 +2901,10 @@
     </row>
     <row r="118" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>17</v>
@@ -2916,10 +2912,10 @@
     </row>
     <row r="119" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>17</v>
@@ -2927,10 +2923,10 @@
     </row>
     <row r="120" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>17</v>
@@ -2938,10 +2934,10 @@
     </row>
     <row r="121" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>17</v>
@@ -2949,10 +2945,10 @@
     </row>
     <row r="122" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>17</v>
@@ -2960,10 +2956,10 @@
     </row>
     <row r="123" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>17</v>
@@ -2971,10 +2967,10 @@
     </row>
     <row r="124" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>17</v>
@@ -2982,10 +2978,10 @@
     </row>
     <row r="125" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>17</v>
@@ -2993,10 +2989,10 @@
     </row>
     <row r="126" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>17</v>
@@ -3004,10 +3000,10 @@
     </row>
     <row r="127" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>17</v>
@@ -3015,10 +3011,10 @@
     </row>
     <row r="128" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>17</v>
@@ -3026,10 +3022,10 @@
     </row>
     <row r="129" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>17</v>
@@ -3037,10 +3033,10 @@
     </row>
     <row r="130" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>17</v>
@@ -3048,10 +3044,10 @@
     </row>
     <row r="131" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>17</v>
@@ -3059,10 +3055,10 @@
     </row>
     <row r="132" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>17</v>
@@ -3070,10 +3066,10 @@
     </row>
     <row r="133" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>17</v>
@@ -3081,10 +3077,10 @@
     </row>
     <row r="134" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>17</v>
@@ -3092,10 +3088,10 @@
     </row>
     <row r="135" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>17</v>
@@ -3103,10 +3099,10 @@
     </row>
     <row r="136" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>17</v>
@@ -3118,10 +3114,10 @@
     </row>
     <row r="139" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>17</v>
@@ -3129,10 +3125,10 @@
     </row>
     <row r="140" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>17</v>
@@ -3140,10 +3136,10 @@
     </row>
     <row r="141" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>17</v>
@@ -3151,10 +3147,10 @@
     </row>
     <row r="142" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>17</v>
@@ -3162,10 +3158,10 @@
     </row>
     <row r="143" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>17</v>
@@ -3173,10 +3169,10 @@
     </row>
     <row r="144" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>17</v>
@@ -3184,10 +3180,10 @@
     </row>
     <row r="145" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>17</v>
@@ -3195,10 +3191,10 @@
     </row>
     <row r="146" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>17</v>
@@ -3206,10 +3202,10 @@
     </row>
     <row r="147" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>17</v>
@@ -3217,10 +3213,10 @@
     </row>
     <row r="148" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>17</v>
@@ -3228,10 +3224,10 @@
     </row>
     <row r="149" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>17</v>
@@ -3239,10 +3235,10 @@
     </row>
     <row r="150" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>17</v>
@@ -3250,10 +3246,10 @@
     </row>
     <row r="151" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>17</v>
@@ -3261,10 +3257,10 @@
     </row>
     <row r="152" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>17</v>
@@ -3272,10 +3268,10 @@
     </row>
     <row r="153" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>17</v>
@@ -3283,10 +3279,10 @@
     </row>
     <row r="154" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>17</v>
@@ -3294,10 +3290,10 @@
     </row>
     <row r="155" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>17</v>
@@ -3305,10 +3301,10 @@
     </row>
     <row r="156" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>17</v>
@@ -3316,10 +3312,10 @@
     </row>
     <row r="157" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>17</v>
@@ -3327,10 +3323,10 @@
     </row>
     <row r="158" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>17</v>
@@ -3338,10 +3334,10 @@
     </row>
     <row r="159" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>17</v>
@@ -3349,10 +3345,10 @@
     </row>
     <row r="160" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>17</v>
@@ -3360,10 +3356,10 @@
     </row>
     <row r="161" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>17</v>
@@ -3371,10 +3367,10 @@
     </row>
     <row r="162" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>17</v>
@@ -3382,10 +3378,10 @@
     </row>
     <row r="163" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>17</v>
@@ -3393,10 +3389,10 @@
     </row>
     <row r="164" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>17</v>
@@ -3404,10 +3400,10 @@
     </row>
     <row r="165" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>17</v>
@@ -3415,10 +3411,10 @@
     </row>
     <row r="166" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>17</v>
@@ -3426,10 +3422,10 @@
     </row>
     <row r="167" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>17</v>
@@ -3437,10 +3433,10 @@
     </row>
     <row r="168" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>17</v>
@@ -3448,10 +3444,10 @@
     </row>
     <row r="169" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>17</v>
@@ -3459,10 +3455,10 @@
     </row>
     <row r="170" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>17</v>
@@ -3470,10 +3466,10 @@
     </row>
     <row r="171" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>17</v>
@@ -3481,10 +3477,10 @@
     </row>
     <row r="172" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>17</v>
@@ -3492,10 +3488,10 @@
     </row>
     <row r="173" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>17</v>
@@ -3503,10 +3499,10 @@
     </row>
     <row r="174" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>17</v>
@@ -3518,10 +3514,10 @@
     </row>
     <row r="177" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>17</v>
@@ -3529,10 +3525,10 @@
     </row>
     <row r="178" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>17</v>
@@ -3540,10 +3536,10 @@
     </row>
     <row r="179" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>17</v>
@@ -3551,10 +3547,10 @@
     </row>
     <row r="180" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>17</v>
@@ -3562,10 +3558,10 @@
     </row>
     <row r="181" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>17</v>
@@ -3573,10 +3569,10 @@
     </row>
     <row r="182" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>17</v>
@@ -3584,10 +3580,10 @@
     </row>
     <row r="183" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>17</v>
@@ -3595,10 +3591,10 @@
     </row>
     <row r="184" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>17</v>
@@ -3606,10 +3602,10 @@
     </row>
     <row r="185" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>17</v>
@@ -3617,10 +3613,10 @@
     </row>
     <row r="186" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C186" s="5" t="s">
         <v>17</v>
@@ -3628,10 +3624,10 @@
     </row>
     <row r="187" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>17</v>
@@ -3639,10 +3635,10 @@
     </row>
     <row r="188" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>17</v>
@@ -3650,10 +3646,10 @@
     </row>
     <row r="189" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>17</v>
@@ -3661,10 +3657,10 @@
     </row>
     <row r="190" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>17</v>
@@ -3672,10 +3668,10 @@
     </row>
     <row r="191" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>17</v>
@@ -3683,10 +3679,10 @@
     </row>
     <row r="192" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>17</v>
@@ -3694,10 +3690,10 @@
     </row>
     <row r="193" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>17</v>
@@ -3705,10 +3701,10 @@
     </row>
     <row r="194" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>17</v>
@@ -3716,10 +3712,10 @@
     </row>
     <row r="195" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>17</v>
@@ -3727,10 +3723,10 @@
     </row>
     <row r="196" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C196" s="5" t="s">
         <v>17</v>
@@ -3738,10 +3734,10 @@
     </row>
     <row r="197" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C197" s="5" t="s">
         <v>17</v>
@@ -3749,10 +3745,10 @@
     </row>
     <row r="198" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>17</v>
@@ -3760,10 +3756,10 @@
     </row>
     <row r="199" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>17</v>
@@ -3771,10 +3767,10 @@
     </row>
     <row r="200" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>17</v>
@@ -3782,10 +3778,10 @@
     </row>
     <row r="201" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>17</v>
@@ -3793,10 +3789,10 @@
     </row>
     <row r="202" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>17</v>
@@ -3804,10 +3800,10 @@
     </row>
     <row r="203" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>17</v>
@@ -3815,10 +3811,10 @@
     </row>
     <row r="204" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>17</v>
@@ -3826,10 +3822,10 @@
     </row>
     <row r="205" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>17</v>
@@ -3837,10 +3833,10 @@
     </row>
     <row r="206" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>17</v>
@@ -3848,10 +3844,10 @@
     </row>
     <row r="207" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>17</v>
@@ -3859,10 +3855,10 @@
     </row>
     <row r="208" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>17</v>
@@ -3870,10 +3866,10 @@
     </row>
     <row r="209" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>17</v>
@@ -3881,10 +3877,10 @@
     </row>
     <row r="210" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>17</v>
@@ -3892,10 +3888,10 @@
     </row>
     <row r="211" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>17</v>
@@ -3913,10 +3909,10 @@
     </row>
     <row r="214" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>17</v>
@@ -3924,10 +3920,10 @@
     </row>
     <row r="215" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>17</v>
@@ -3935,10 +3931,10 @@
     </row>
     <row r="216" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>17</v>
@@ -3946,10 +3942,10 @@
     </row>
     <row r="217" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>17</v>
@@ -3957,10 +3953,10 @@
     </row>
     <row r="218" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>17</v>
@@ -3968,10 +3964,10 @@
     </row>
     <row r="219" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>17</v>
@@ -3979,10 +3975,10 @@
     </row>
     <row r="220" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>17</v>
@@ -3990,10 +3986,10 @@
     </row>
     <row r="221" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>17</v>
@@ -4001,10 +3997,10 @@
     </row>
     <row r="222" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C222" s="5" t="s">
         <v>17</v>
@@ -4012,10 +4008,10 @@
     </row>
     <row r="223" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>17</v>
@@ -4023,10 +4019,10 @@
     </row>
     <row r="224" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>17</v>
@@ -4034,10 +4030,10 @@
     </row>
     <row r="225" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>17</v>
@@ -4045,10 +4041,10 @@
     </row>
     <row r="226" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>17</v>
@@ -4056,10 +4052,10 @@
     </row>
     <row r="227" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>17</v>
@@ -4067,10 +4063,10 @@
     </row>
     <row r="228" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>17</v>
@@ -4078,10 +4074,10 @@
     </row>
     <row r="229" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>17</v>
@@ -4089,10 +4085,10 @@
     </row>
     <row r="230" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>17</v>
@@ -4100,10 +4096,10 @@
     </row>
     <row r="231" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>17</v>
@@ -4111,10 +4107,10 @@
     </row>
     <row r="232" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>17</v>
@@ -4122,10 +4118,10 @@
     </row>
     <row r="233" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>17</v>
@@ -4133,10 +4129,10 @@
     </row>
     <row r="234" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>17</v>
@@ -4144,10 +4140,10 @@
     </row>
     <row r="235" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>17</v>
@@ -4163,10 +4159,10 @@
     </row>
     <row r="238" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>17</v>
@@ -4174,10 +4170,10 @@
     </row>
     <row r="239" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>17</v>
@@ -4185,10 +4181,10 @@
     </row>
     <row r="240" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>17</v>
@@ -4196,10 +4192,10 @@
     </row>
     <row r="241" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>17</v>
@@ -4207,10 +4203,10 @@
     </row>
     <row r="242" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>17</v>
@@ -4218,10 +4214,10 @@
     </row>
     <row r="243" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>17</v>
@@ -4229,10 +4225,10 @@
     </row>
     <row r="244" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>17</v>
@@ -4240,10 +4236,10 @@
     </row>
     <row r="245" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>17</v>
@@ -4251,10 +4247,10 @@
     </row>
     <row r="246" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>17</v>
@@ -4262,10 +4258,10 @@
     </row>
     <row r="247" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>17</v>
@@ -4273,10 +4269,10 @@
     </row>
     <row r="248" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>17</v>
@@ -4284,10 +4280,10 @@
     </row>
     <row r="249" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>17</v>
@@ -4295,10 +4291,10 @@
     </row>
     <row r="250" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>17</v>
@@ -4306,10 +4302,10 @@
     </row>
     <row r="251" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>17</v>
@@ -4317,10 +4313,10 @@
     </row>
     <row r="252" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>17</v>
@@ -4328,10 +4324,10 @@
     </row>
     <row r="253" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>17</v>
@@ -4339,10 +4335,10 @@
     </row>
     <row r="254" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>17</v>
@@ -4350,10 +4346,10 @@
     </row>
     <row r="255" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>17</v>
@@ -4361,10 +4357,10 @@
     </row>
     <row r="256" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>17</v>
@@ -4372,10 +4368,10 @@
     </row>
     <row r="257" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>17</v>
@@ -4383,10 +4379,10 @@
     </row>
     <row r="258" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>17</v>
@@ -4394,10 +4390,10 @@
     </row>
     <row r="259" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>17</v>
@@ -4405,10 +4401,10 @@
     </row>
     <row r="260" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>17</v>
@@ -4416,10 +4412,10 @@
     </row>
     <row r="261" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>17</v>
@@ -4427,10 +4423,10 @@
     </row>
     <row r="262" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>17</v>
@@ -4438,10 +4434,10 @@
     </row>
     <row r="263" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>17</v>
@@ -4449,10 +4445,10 @@
     </row>
     <row r="264" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>17</v>
@@ -4460,10 +4456,10 @@
     </row>
     <row r="265" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>17</v>
@@ -4471,10 +4467,10 @@
     </row>
     <row r="266" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>17</v>
@@ -4482,10 +4478,10 @@
     </row>
     <row r="267" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>17</v>
@@ -4493,10 +4489,10 @@
     </row>
     <row r="268" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>17</v>
@@ -4504,10 +4500,10 @@
     </row>
     <row r="269" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>17</v>
@@ -4515,10 +4511,10 @@
     </row>
     <row r="270" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>17</v>
@@ -4526,10 +4522,10 @@
     </row>
     <row r="271" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>17</v>
@@ -4537,10 +4533,10 @@
     </row>
     <row r="272" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C272" s="5" t="s">
         <v>17</v>
@@ -4556,10 +4552,10 @@
     </row>
     <row r="275" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>17</v>
@@ -4567,10 +4563,10 @@
     </row>
     <row r="276" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>17</v>
@@ -4578,10 +4574,10 @@
     </row>
     <row r="277" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>17</v>
@@ -4589,10 +4585,10 @@
     </row>
     <row r="278" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>17</v>
@@ -4600,10 +4596,10 @@
     </row>
     <row r="279" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>17</v>
@@ -4611,10 +4607,10 @@
     </row>
     <row r="280" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>17</v>
@@ -4622,10 +4618,10 @@
     </row>
     <row r="281" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>17</v>
@@ -4633,10 +4629,10 @@
     </row>
     <row r="282" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>17</v>
@@ -4644,10 +4640,10 @@
     </row>
     <row r="283" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>17</v>
@@ -4655,10 +4651,10 @@
     </row>
     <row r="284" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>17</v>
@@ -4666,10 +4662,10 @@
     </row>
     <row r="285" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>17</v>
@@ -4677,10 +4673,10 @@
     </row>
     <row r="286" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>17</v>
@@ -4688,10 +4684,10 @@
     </row>
     <row r="287" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>17</v>
@@ -4699,10 +4695,10 @@
     </row>
     <row r="288" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>17</v>
@@ -4710,10 +4706,10 @@
     </row>
     <row r="289" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>17</v>
@@ -4721,10 +4717,10 @@
     </row>
     <row r="290" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>17</v>
@@ -4732,10 +4728,10 @@
     </row>
     <row r="291" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>17</v>
@@ -4743,10 +4739,10 @@
     </row>
     <row r="292" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>17</v>
@@ -4754,10 +4750,10 @@
     </row>
     <row r="293" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>17</v>
@@ -4773,10 +4769,10 @@
     </row>
     <row r="296" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>17</v>
@@ -4784,10 +4780,10 @@
     </row>
     <row r="297" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>17</v>
@@ -4795,10 +4791,10 @@
     </row>
     <row r="298" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>17</v>
@@ -4806,10 +4802,10 @@
     </row>
     <row r="299" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>17</v>
@@ -4817,10 +4813,10 @@
     </row>
     <row r="300" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>17</v>
@@ -4828,10 +4824,10 @@
     </row>
     <row r="301" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>17</v>
@@ -4839,10 +4835,10 @@
     </row>
     <row r="302" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>17</v>
@@ -4850,10 +4846,10 @@
     </row>
     <row r="303" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>17</v>
@@ -4861,10 +4857,10 @@
     </row>
     <row r="304" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>17</v>
@@ -4872,10 +4868,10 @@
     </row>
     <row r="305" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C305" s="5" t="s">
         <v>17</v>
@@ -4883,10 +4879,10 @@
     </row>
     <row r="306" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>17</v>
@@ -4894,10 +4890,10 @@
     </row>
     <row r="307" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>17</v>
@@ -4905,10 +4901,10 @@
     </row>
     <row r="308" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>17</v>
@@ -4916,10 +4912,10 @@
     </row>
     <row r="309" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>17</v>
@@ -4927,10 +4923,10 @@
     </row>
     <row r="310" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>17</v>
@@ -4938,10 +4934,10 @@
     </row>
     <row r="311" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>17</v>
@@ -4949,10 +4945,10 @@
     </row>
     <row r="312" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>17</v>
@@ -4960,10 +4956,10 @@
     </row>
     <row r="313" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>17</v>
@@ -4971,10 +4967,10 @@
     </row>
     <row r="314" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>17</v>
@@ -4982,10 +4978,10 @@
     </row>
     <row r="315" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>17</v>
@@ -4993,10 +4989,10 @@
     </row>
     <row r="316" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>17</v>
@@ -5004,10 +5000,10 @@
     </row>
     <row r="317" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>17</v>
@@ -5015,10 +5011,10 @@
     </row>
     <row r="318" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>17</v>
@@ -5026,10 +5022,10 @@
     </row>
     <row r="319" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>17</v>
@@ -5037,10 +5033,10 @@
     </row>
     <row r="320" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>17</v>
@@ -5048,10 +5044,10 @@
     </row>
     <row r="321" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>17</v>
@@ -5059,10 +5055,10 @@
     </row>
     <row r="322" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>17</v>
@@ -5070,10 +5066,10 @@
     </row>
     <row r="323" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>17</v>
@@ -5081,10 +5077,10 @@
     </row>
     <row r="324" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>17</v>
@@ -5092,10 +5088,10 @@
     </row>
     <row r="325" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>17</v>
@@ -5103,10 +5099,10 @@
     </row>
     <row r="326" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>17</v>
@@ -5114,10 +5110,10 @@
     </row>
     <row r="327" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B327" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>17</v>
@@ -5125,10 +5121,10 @@
     </row>
     <row r="328" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>17</v>
@@ -5136,10 +5132,10 @@
     </row>
     <row r="329" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>17</v>
@@ -5147,10 +5143,10 @@
     </row>
     <row r="330" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>17</v>
@@ -5158,10 +5154,10 @@
     </row>
     <row r="331" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B331" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>17</v>
@@ -5169,10 +5165,10 @@
     </row>
     <row r="332" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>17</v>
@@ -5180,10 +5176,10 @@
     </row>
     <row r="333" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B333" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>17</v>
@@ -5199,10 +5195,10 @@
     </row>
     <row r="336" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>17</v>
@@ -5210,10 +5206,10 @@
     </row>
     <row r="337" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>17</v>
@@ -5221,10 +5217,10 @@
     </row>
     <row r="338" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>17</v>
@@ -5232,10 +5228,10 @@
     </row>
     <row r="339" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>17</v>
@@ -5243,10 +5239,10 @@
     </row>
     <row r="340" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>17</v>
@@ -5254,10 +5250,10 @@
     </row>
     <row r="341" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>17</v>
@@ -5265,10 +5261,10 @@
     </row>
     <row r="342" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>17</v>
@@ -5276,10 +5272,10 @@
     </row>
     <row r="343" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>17</v>
@@ -5287,10 +5283,10 @@
     </row>
     <row r="344" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B344" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>17</v>
@@ -5298,10 +5294,10 @@
     </row>
     <row r="345" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>17</v>
@@ -5309,10 +5305,10 @@
     </row>
     <row r="346" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>17</v>
@@ -5320,10 +5316,10 @@
     </row>
     <row r="347" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>17</v>
@@ -5331,10 +5327,10 @@
     </row>
     <row r="348" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B348" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>17</v>
@@ -5342,10 +5338,10 @@
     </row>
     <row r="349" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>17</v>
@@ -5353,10 +5349,10 @@
     </row>
     <row r="350" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>17</v>
@@ -5364,10 +5360,10 @@
     </row>
     <row r="351" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B351" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>17</v>
@@ -5375,10 +5371,10 @@
     </row>
     <row r="352" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>17</v>
@@ -5386,10 +5382,10 @@
     </row>
     <row r="353" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B353" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>17</v>
@@ -5405,10 +5401,10 @@
     </row>
     <row r="356" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B356" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>17</v>
@@ -5416,10 +5412,10 @@
     </row>
     <row r="357" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B357" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>17</v>
@@ -5427,10 +5423,10 @@
     </row>
     <row r="358" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>17</v>
@@ -5438,10 +5434,10 @@
     </row>
     <row r="359" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>17</v>
@@ -5449,10 +5445,10 @@
     </row>
     <row r="360" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C360" s="5" t="s">
         <v>17</v>
@@ -5460,10 +5456,10 @@
     </row>
     <row r="361" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>17</v>
@@ -5471,10 +5467,10 @@
     </row>
     <row r="362" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C362" s="5" t="s">
         <v>17</v>
@@ -5482,10 +5478,10 @@
     </row>
     <row r="363" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>17</v>
@@ -5493,10 +5489,10 @@
     </row>
     <row r="364" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>17</v>
@@ -5504,10 +5500,10 @@
     </row>
     <row r="365" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>17</v>
@@ -5515,10 +5511,10 @@
     </row>
     <row r="366" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>17</v>
@@ -5526,10 +5522,10 @@
     </row>
     <row r="367" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>17</v>
@@ -5537,10 +5533,10 @@
     </row>
     <row r="368" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>17</v>
@@ -5548,10 +5544,10 @@
     </row>
     <row r="369" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>17</v>
@@ -5559,10 +5555,10 @@
     </row>
     <row r="370" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>17</v>
@@ -5570,10 +5566,10 @@
     </row>
     <row r="371" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>17</v>
@@ -5581,10 +5577,10 @@
     </row>
     <row r="372" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>17</v>
@@ -5592,10 +5588,10 @@
     </row>
     <row r="373" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>17</v>
@@ -5603,10 +5599,10 @@
     </row>
     <row r="374" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>17</v>
@@ -5614,10 +5610,10 @@
     </row>
     <row r="375" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B375" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>17</v>
@@ -5625,10 +5621,10 @@
     </row>
     <row r="376" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>17</v>
@@ -5636,10 +5632,10 @@
     </row>
     <row r="377" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B377" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>17</v>
@@ -5647,10 +5643,10 @@
     </row>
     <row r="378" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B378" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>17</v>
@@ -5658,10 +5654,10 @@
     </row>
     <row r="379" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B379" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>17</v>
@@ -5669,10 +5665,10 @@
     </row>
     <row r="380" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>17</v>
@@ -5680,10 +5676,10 @@
     </row>
     <row r="381" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>17</v>
@@ -5691,10 +5687,10 @@
     </row>
     <row r="382" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>17</v>
@@ -5702,10 +5698,10 @@
     </row>
     <row r="383" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>17</v>
@@ -5713,10 +5709,10 @@
     </row>
     <row r="384" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>17</v>
@@ -5724,10 +5720,10 @@
     </row>
     <row r="385" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>17</v>
@@ -5735,10 +5731,10 @@
     </row>
     <row r="386" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>17</v>
@@ -5746,10 +5742,10 @@
     </row>
     <row r="387" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B387" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>17</v>
@@ -5757,10 +5753,10 @@
     </row>
     <row r="388" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>17</v>
@@ -5768,10 +5764,10 @@
     </row>
     <row r="389" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>17</v>
@@ -5779,10 +5775,10 @@
     </row>
     <row r="390" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>17</v>
@@ -5790,10 +5786,10 @@
     </row>
     <row r="391" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B391" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>17</v>
@@ -5801,10 +5797,10 @@
     </row>
     <row r="392" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>17</v>
@@ -5812,10 +5808,10 @@
     </row>
     <row r="393" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>17</v>
@@ -5823,10 +5819,10 @@
     </row>
     <row r="394" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>17</v>
@@ -5834,10 +5830,10 @@
     </row>
     <row r="395" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>17</v>
@@ -5845,10 +5841,10 @@
     </row>
     <row r="396" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B396" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>17</v>
@@ -5856,10 +5852,10 @@
     </row>
     <row r="397" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>17</v>
@@ -5867,10 +5863,10 @@
     </row>
     <row r="398" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B398" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>17</v>
@@ -5878,10 +5874,10 @@
     </row>
     <row r="399" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B399" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>17</v>
@@ -5897,10 +5893,10 @@
     </row>
     <row r="402" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B402" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>17</v>
@@ -5908,10 +5904,10 @@
     </row>
     <row r="403" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B403" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>17</v>
@@ -5919,10 +5915,10 @@
     </row>
     <row r="404" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>17</v>
@@ -5930,10 +5926,10 @@
     </row>
     <row r="405" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B405" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C405" s="5" t="s">
         <v>17</v>
@@ -5941,10 +5937,10 @@
     </row>
     <row r="406" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>17</v>
@@ -5952,10 +5948,10 @@
     </row>
     <row r="407" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B407" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>17</v>
@@ -5971,10 +5967,10 @@
     </row>
     <row r="410" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B410" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C410" s="5" t="s">
         <v>17</v>
@@ -5982,10 +5978,10 @@
     </row>
     <row r="411" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C411" s="5" t="s">
         <v>17</v>
@@ -5993,10 +5989,10 @@
     </row>
     <row r="412" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C412" s="5" t="s">
         <v>17</v>
@@ -6004,10 +6000,10 @@
     </row>
     <row r="413" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C413" s="5" t="s">
         <v>17</v>
@@ -6015,10 +6011,10 @@
     </row>
     <row r="414" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C414" s="5" t="s">
         <v>17</v>
@@ -6026,10 +6022,10 @@
     </row>
     <row r="415" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C415" s="5" t="s">
         <v>17</v>
@@ -6037,10 +6033,10 @@
     </row>
     <row r="416" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C416" s="5" t="s">
         <v>17</v>
@@ -6048,10 +6044,10 @@
     </row>
     <row r="417" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B417" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C417" s="5" t="s">
         <v>17</v>
@@ -6059,10 +6055,10 @@
     </row>
     <row r="418" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C418" s="5" t="s">
         <v>17</v>
@@ -6070,10 +6066,10 @@
     </row>
     <row r="419" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B419" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C419" s="5" t="s">
         <v>17</v>
@@ -6081,10 +6077,10 @@
     </row>
     <row r="420" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B420" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C420" s="5" t="s">
         <v>17</v>
@@ -6092,10 +6088,10 @@
     </row>
     <row r="421" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B421" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C421" s="5" t="s">
         <v>17</v>
@@ -6103,10 +6099,10 @@
     </row>
     <row r="422" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>17</v>
@@ -6114,10 +6110,10 @@
     </row>
     <row r="423" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B423" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C423" s="5" t="s">
         <v>17</v>
@@ -6125,10 +6121,10 @@
     </row>
     <row r="424" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C424" s="5" t="s">
         <v>17</v>
@@ -6136,10 +6132,10 @@
     </row>
     <row r="425" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B425" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C425" s="5" t="s">
         <v>17</v>
@@ -6147,10 +6143,10 @@
     </row>
     <row r="426" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C426" s="5" t="s">
         <v>17</v>
@@ -6158,10 +6154,10 @@
     </row>
     <row r="427" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B427" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C427" s="5" t="s">
         <v>17</v>
@@ -6169,10 +6165,10 @@
     </row>
     <row r="428" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C428" s="5" t="s">
         <v>17</v>
@@ -6180,10 +6176,10 @@
     </row>
     <row r="429" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B429" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>17</v>
@@ -6191,10 +6187,10 @@
     </row>
     <row r="430" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C430" s="5" t="s">
         <v>17</v>
@@ -6202,10 +6198,10 @@
     </row>
     <row r="431" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B431" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>17</v>
@@ -6213,10 +6209,10 @@
     </row>
     <row r="432" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C432" s="5" t="s">
         <v>17</v>
@@ -6224,10 +6220,10 @@
     </row>
     <row r="433" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B433" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>17</v>
@@ -6235,10 +6231,10 @@
     </row>
     <row r="434" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B434" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C434" s="5" t="s">
         <v>17</v>
@@ -6246,10 +6242,10 @@
     </row>
     <row r="435" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B435" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>17</v>
@@ -6257,10 +6253,10 @@
     </row>
     <row r="436" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C436" s="5" t="s">
         <v>17</v>
@@ -6268,10 +6264,10 @@
     </row>
     <row r="437" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B437" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>17</v>
@@ -6279,10 +6275,10 @@
     </row>
     <row r="438" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C438" s="5" t="s">
         <v>17</v>
@@ -6290,10 +6286,10 @@
     </row>
     <row r="439" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B439" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>17</v>
@@ -6301,10 +6297,10 @@
     </row>
     <row r="440" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B440" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C440" s="5" t="s">
         <v>17</v>
@@ -6312,10 +6308,10 @@
     </row>
     <row r="441" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B441" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C441" s="5" t="s">
         <v>17</v>
@@ -6323,10 +6319,10 @@
     </row>
     <row r="442" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B442" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>17</v>
@@ -6334,10 +6330,10 @@
     </row>
     <row r="443" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B443" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>17</v>
@@ -6345,10 +6341,10 @@
     </row>
     <row r="444" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B444" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C444" s="5" t="s">
         <v>17</v>
@@ -6356,10 +6352,10 @@
     </row>
     <row r="445" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B445" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>17</v>
@@ -6367,10 +6363,10 @@
     </row>
     <row r="446" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B446" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>17</v>
@@ -6378,10 +6374,10 @@
     </row>
     <row r="447" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B447" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C447" s="5" t="s">
         <v>17</v>
@@ -6389,10 +6385,10 @@
     </row>
     <row r="448" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B448" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>17</v>
@@ -6400,10 +6396,10 @@
     </row>
     <row r="449" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B449" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C449" s="5" t="s">
         <v>17</v>
@@ -6411,10 +6407,10 @@
     </row>
     <row r="450" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B450" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C450" s="5" t="s">
         <v>17</v>
@@ -6422,10 +6418,10 @@
     </row>
     <row r="451" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B451" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C451" s="5" t="s">
         <v>17</v>
@@ -6433,10 +6429,10 @@
     </row>
     <row r="452" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B452" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>17</v>
@@ -6444,10 +6440,10 @@
     </row>
     <row r="453" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B453" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>17</v>
@@ -6455,10 +6451,10 @@
     </row>
     <row r="454" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C454" s="5" t="s">
         <v>17</v>
@@ -6466,10 +6462,10 @@
     </row>
     <row r="455" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B455" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C455" s="5" t="s">
         <v>17</v>
@@ -6477,10 +6473,10 @@
     </row>
     <row r="456" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C456" s="5" t="s">
         <v>17</v>
@@ -6488,10 +6484,10 @@
     </row>
     <row r="457" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B457" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C457" s="5" t="s">
         <v>17</v>
@@ -6499,10 +6495,10 @@
     </row>
     <row r="458" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>17</v>
@@ -6510,10 +6506,10 @@
     </row>
     <row r="459" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B459" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C459" s="5" t="s">
         <v>17</v>
@@ -6521,10 +6517,10 @@
     </row>
     <row r="460" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B460" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C460" s="5" t="s">
         <v>17</v>
@@ -6532,10 +6528,10 @@
     </row>
     <row r="461" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B461" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>17</v>
@@ -6543,10 +6539,10 @@
     </row>
     <row r="462" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B462" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>17</v>
@@ -6554,10 +6550,10 @@
     </row>
     <row r="463" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B463" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>17</v>
@@ -6565,10 +6561,10 @@
     </row>
     <row r="464" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B464" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>17</v>
@@ -6576,10 +6572,10 @@
     </row>
     <row r="465" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B465" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C465" s="5" t="s">
         <v>17</v>
@@ -6587,10 +6583,10 @@
     </row>
     <row r="466" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B466" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>17</v>
@@ -6598,10 +6594,10 @@
     </row>
     <row r="467" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B467" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C467" s="5" t="s">
         <v>17</v>
@@ -6609,10 +6605,10 @@
     </row>
     <row r="468" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B468" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C468" s="5" t="s">
         <v>17</v>
@@ -6620,10 +6616,10 @@
     </row>
     <row r="469" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B469" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C469" s="5" t="s">
         <v>17</v>
@@ -6640,10 +6636,10 @@
     </row>
     <row r="472" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B472" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C472" s="5" t="s">
         <v>17</v>
@@ -6651,10 +6647,10 @@
     </row>
     <row r="473" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B473" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C473" s="5" t="s">
         <v>17</v>
@@ -6662,10 +6658,10 @@
     </row>
     <row r="474" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B474" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C474" s="5" t="s">
         <v>17</v>
@@ -6673,10 +6669,10 @@
     </row>
     <row r="475" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B475" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C475" s="5" t="s">
         <v>17</v>
@@ -6684,10 +6680,10 @@
     </row>
     <row r="476" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C476" s="5" t="s">
         <v>17</v>
@@ -6695,10 +6691,10 @@
     </row>
     <row r="477" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B477" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C477" s="5" t="s">
         <v>17</v>
@@ -6706,10 +6702,10 @@
     </row>
     <row r="478" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B478" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C478" s="5" t="s">
         <v>17</v>
@@ -6717,10 +6713,10 @@
     </row>
     <row r="479" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B479" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C479" s="5" t="s">
         <v>17</v>
@@ -6728,10 +6724,10 @@
     </row>
     <row r="480" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B480" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>17</v>
@@ -6739,10 +6735,10 @@
     </row>
     <row r="481" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B481" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C481" s="5" t="s">
         <v>17</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1439,6 +1439,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1461,6 +1462,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -1468,6 +1470,7 @@
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1476,6 +1479,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1483,6 +1487,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -1490,12 +1495,14 @@
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1674,11 +1681,11 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A83" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B104" activeCellId="0" sqref="B104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -2720,7 +2727,7 @@
         <v>102</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2731,7 +2738,7 @@
         <v>103</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2742,7 +2749,7 @@
         <v>104</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1681,11 +1681,11 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A83" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B104" activeCellId="0" sqref="B104"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B112" activeCellId="0" sqref="B112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -2760,7 +2760,7 @@
         <v>105</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2771,7 +2771,7 @@
         <v>106</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2793,7 +2793,7 @@
         <v>108</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2804,7 +2804,7 @@
         <v>109</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2815,7 +2815,7 @@
         <v>110</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2826,7 +2826,7 @@
         <v>111</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2844,7 +2844,7 @@
       <c r="A112" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="8" t="s">
         <v>113</v>
       </c>
       <c r="C112" s="5" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1681,8 +1681,8 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B112" activeCellId="0" sqref="B112"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B59" activeCellId="0" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2271,7 +2271,7 @@
         <v>60</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2293,7 +2293,7 @@
         <v>62</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
